--- a/Rezultate.xlsx
+++ b/Rezultate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Momentul Completarii</t>
   </si>
@@ -148,13 +148,22 @@
     <t>HR</t>
   </si>
   <si>
-    <t>Politist</t>
-  </si>
-  <si>
     <t>da</t>
   </si>
   <si>
     <t>pare angajabil</t>
+  </si>
+  <si>
+    <t>1-15-2021</t>
+  </si>
+  <si>
+    <t>daaa</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Notar</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -344,9 +353,6 @@
       <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="I2" s="0" t="n">
         <v>2</v>
       </c>
@@ -435,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="AL2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="AM2" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="AN2" s="0" t="n">
         <v>2</v>
@@ -466,9 +472,6 @@
       <c r="G3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
@@ -557,10 +560,10 @@
         <v>5</v>
       </c>
       <c r="AL3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM3" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="AM3" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="AN3" s="0" t="n">
         <v>2</v>
@@ -679,10 +682,10 @@
         <v>5</v>
       </c>
       <c r="AL4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM4" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="AM4" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="AN4" s="0" t="n">
         <v>2</v>
@@ -801,10 +804,10 @@
         <v>5</v>
       </c>
       <c r="AL5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM5" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="AM5" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="AN5" s="0" t="n">
         <v>2</v>
@@ -832,9 +835,6 @@
       <c r="G6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" s="0" t="n">
         <v>2</v>
       </c>
@@ -923,10 +923,10 @@
         <v>5</v>
       </c>
       <c r="AL6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM6" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="AM6" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="AN6" s="0" t="n">
         <v>2</v>
@@ -954,9 +954,6 @@
       <c r="G7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="I7" s="0" t="n">
         <v>2</v>
       </c>
@@ -1045,10 +1042,10 @@
         <v>5</v>
       </c>
       <c r="AL7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM7" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="AM7" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="AN7" s="0" t="n">
         <v>2</v>
@@ -1167,10 +1164,10 @@
         <v>5</v>
       </c>
       <c r="AL8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM8" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="AM8" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="AN8" s="0" t="n">
         <v>2</v>
@@ -1289,12 +1286,3657 @@
         <v>5</v>
       </c>
       <c r="AL9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AM9" s="0" t="s">
+      <c r="AN9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
+      <c r="A18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="A20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
+      <c r="A21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
+      <c r="A28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL28" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM28" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
+      <c r="A29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL29" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM29" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="A30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL30" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM30" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
+      <c r="A31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
+      <c r="A32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
+      <c r="A33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
+      <c r="A34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
+      <c r="A35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
+      <c r="A36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
+      <c r="A37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
+      <c r="A38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL38" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM38" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
+      <c r="A39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL39" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM39" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN39" s="0" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Rezultate.xlsx
+++ b/Rezultate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Momentul Completarii</t>
   </si>
@@ -148,6 +148,9 @@
     <t>HR</t>
   </si>
   <si>
+    <t>Manager Resurse Umane</t>
+  </si>
+  <si>
     <t>da</t>
   </si>
   <si>
@@ -163,7 +166,7 @@
     <t>Da</t>
   </si>
   <si>
-    <t>Notar</t>
+    <t>Asistent Manager Resurse Umane</t>
   </si>
 </sst>
 </file>
@@ -353,6 +356,9 @@
       <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="I2" s="0" t="n">
         <v>2</v>
       </c>
@@ -441,10 +447,10 @@
         <v>5</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="0" t="n">
         <v>2</v>
@@ -472,6 +478,9 @@
       <c r="G3" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
@@ -560,10 +569,10 @@
         <v>5</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN3" s="0" t="n">
         <v>2</v>
@@ -591,9 +600,6 @@
       <c r="G4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
@@ -682,10 +688,10 @@
         <v>5</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN4" s="0" t="n">
         <v>2</v>
@@ -713,9 +719,6 @@
       <c r="G5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="I5" s="0" t="n">
         <v>2</v>
       </c>
@@ -804,10 +807,10 @@
         <v>5</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN5" s="0" t="n">
         <v>2</v>
@@ -835,6 +838,9 @@
       <c r="G6" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="I6" s="0" t="n">
         <v>2</v>
       </c>
@@ -923,10 +929,10 @@
         <v>5</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN6" s="0" t="n">
         <v>2</v>
@@ -954,6 +960,9 @@
       <c r="G7" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="I7" s="0" t="n">
         <v>2</v>
       </c>
@@ -1042,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN7" s="0" t="n">
         <v>2</v>
@@ -1073,9 +1082,6 @@
       <c r="G8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="I8" s="0" t="n">
         <v>2</v>
       </c>
@@ -1164,10 +1170,10 @@
         <v>5</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN8" s="0" t="n">
         <v>2</v>
@@ -1195,9 +1201,6 @@
       <c r="G9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="I9" s="0" t="n">
         <v>2</v>
       </c>
@@ -1286,10 +1289,10 @@
         <v>5</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN9" s="0" t="n">
         <v>2</v>
@@ -1297,7 +1300,7 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -1309,16 +1312,13 @@
         <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1</v>
@@ -1408,10 +1408,10 @@
         <v>4</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN10" s="0" t="n">
         <v>2</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -1431,16 +1431,13 @@
         <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>8</v>
@@ -1530,10 +1527,10 @@
         <v>4</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN11" s="0" t="n">
         <v>2</v>
@@ -1541,7 +1538,7 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -1553,16 +1550,13 @@
         <v>41</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>9</v>
@@ -1652,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN12" s="0" t="n">
         <v>2</v>
@@ -1663,7 +1657,7 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -1675,16 +1669,13 @@
         <v>41</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>11</v>
@@ -1774,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN13" s="0" t="n">
         <v>2</v>
@@ -1785,7 +1776,7 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -1797,13 +1788,16 @@
         <v>41</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>10</v>
@@ -1893,10 +1887,10 @@
         <v>4</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN14" s="0" t="n">
         <v>2</v>
@@ -1904,7 +1898,7 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -1916,16 +1910,16 @@
         <v>41</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>6</v>
@@ -2015,10 +2009,10 @@
         <v>5</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN15" s="0" t="n">
         <v>2</v>
@@ -2026,7 +2020,7 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
@@ -2038,16 +2032,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>1</v>
@@ -2137,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN16" s="0" t="n">
         <v>2</v>
@@ -2148,7 +2139,7 @@
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -2160,16 +2151,13 @@
         <v>41</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>8</v>
@@ -2259,10 +2247,10 @@
         <v>4</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN17" s="0" t="n">
         <v>2</v>
@@ -2270,7 +2258,7 @@
     </row>
     <row r="18" spans="1:40">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -2282,16 +2270,13 @@
         <v>41</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>9</v>
@@ -2381,10 +2366,10 @@
         <v>4</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN18" s="0" t="n">
         <v>2</v>
@@ -2392,7 +2377,7 @@
     </row>
     <row r="19" spans="1:40">
       <c r="A19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
@@ -2404,16 +2389,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>11</v>
@@ -2503,10 +2485,10 @@
         <v>4</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN19" s="0" t="n">
         <v>2</v>
@@ -2514,7 +2496,7 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -2526,13 +2508,16 @@
         <v>41</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>10</v>
@@ -2622,10 +2607,10 @@
         <v>4</v>
       </c>
       <c r="AL20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN20" s="0" t="n">
         <v>2</v>
@@ -2633,7 +2618,7 @@
     </row>
     <row r="21" spans="1:40">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
@@ -2645,16 +2630,16 @@
         <v>41</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>6</v>
@@ -2744,10 +2729,10 @@
         <v>5</v>
       </c>
       <c r="AL21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN21" s="0" t="n">
         <v>2</v>
@@ -2755,7 +2740,7 @@
     </row>
     <row r="22" spans="1:40">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -2767,16 +2752,13 @@
         <v>41</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>1</v>
@@ -2866,10 +2848,10 @@
         <v>4</v>
       </c>
       <c r="AL22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN22" s="0" t="n">
         <v>2</v>
@@ -2877,7 +2859,7 @@
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -2889,16 +2871,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>8</v>
@@ -2988,10 +2967,10 @@
         <v>4</v>
       </c>
       <c r="AL23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN23" s="0" t="n">
         <v>2</v>
@@ -2999,7 +2978,7 @@
     </row>
     <row r="24" spans="1:40">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
@@ -3011,16 +2990,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>9</v>
@@ -3110,10 +3086,10 @@
         <v>4</v>
       </c>
       <c r="AL24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN24" s="0" t="n">
         <v>2</v>
@@ -3121,7 +3097,7 @@
     </row>
     <row r="25" spans="1:40">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -3133,16 +3109,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>11</v>
@@ -3232,10 +3205,10 @@
         <v>4</v>
       </c>
       <c r="AL25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN25" s="0" t="n">
         <v>2</v>
@@ -3243,7 +3216,7 @@
     </row>
     <row r="26" spans="1:40">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -3255,13 +3228,16 @@
         <v>41</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>10</v>
@@ -3351,10 +3327,10 @@
         <v>4</v>
       </c>
       <c r="AL26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN26" s="0" t="n">
         <v>2</v>
@@ -3362,7 +3338,7 @@
     </row>
     <row r="27" spans="1:40">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -3374,16 +3350,16 @@
         <v>41</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>6</v>
@@ -3473,10 +3449,10 @@
         <v>5</v>
       </c>
       <c r="AL27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN27" s="0" t="n">
         <v>2</v>
@@ -3484,7 +3460,7 @@
     </row>
     <row r="28" spans="1:40">
       <c r="A28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -3496,16 +3472,13 @@
         <v>41</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>1</v>
@@ -3595,10 +3568,10 @@
         <v>4</v>
       </c>
       <c r="AL28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN28" s="0" t="n">
         <v>2</v>
@@ -3606,7 +3579,7 @@
     </row>
     <row r="29" spans="1:40">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -3618,16 +3591,13 @@
         <v>41</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>8</v>
@@ -3717,10 +3687,10 @@
         <v>4</v>
       </c>
       <c r="AL29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN29" s="0" t="n">
         <v>2</v>
@@ -3728,7 +3698,7 @@
     </row>
     <row r="30" spans="1:40">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -3740,16 +3710,13 @@
         <v>41</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>9</v>
@@ -3839,10 +3806,10 @@
         <v>4</v>
       </c>
       <c r="AL30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN30" s="0" t="n">
         <v>2</v>
@@ -3850,7 +3817,7 @@
     </row>
     <row r="31" spans="1:40">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -3862,16 +3829,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>11</v>
@@ -3961,10 +3925,10 @@
         <v>4</v>
       </c>
       <c r="AL31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN31" s="0" t="n">
         <v>2</v>
@@ -3972,7 +3936,7 @@
     </row>
     <row r="32" spans="1:40">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -3984,13 +3948,16 @@
         <v>41</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>10</v>
@@ -4080,10 +4047,10 @@
         <v>4</v>
       </c>
       <c r="AL32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN32" s="0" t="n">
         <v>2</v>
@@ -4091,7 +4058,7 @@
     </row>
     <row r="33" spans="1:40">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -4103,16 +4070,16 @@
         <v>41</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>6</v>
@@ -4202,10 +4169,10 @@
         <v>5</v>
       </c>
       <c r="AL33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN33" s="0" t="n">
         <v>2</v>
@@ -4213,7 +4180,7 @@
     </row>
     <row r="34" spans="1:40">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -4225,16 +4192,13 @@
         <v>41</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>1</v>
@@ -4324,10 +4288,10 @@
         <v>4</v>
       </c>
       <c r="AL34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN34" s="0" t="n">
         <v>2</v>
@@ -4335,7 +4299,7 @@
     </row>
     <row r="35" spans="1:40">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -4347,16 +4311,13 @@
         <v>41</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>8</v>
@@ -4446,10 +4407,10 @@
         <v>4</v>
       </c>
       <c r="AL35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN35" s="0" t="n">
         <v>2</v>
@@ -4457,7 +4418,7 @@
     </row>
     <row r="36" spans="1:40">
       <c r="A36" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -4469,16 +4430,13 @@
         <v>41</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>9</v>
@@ -4568,10 +4526,10 @@
         <v>4</v>
       </c>
       <c r="AL36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN36" s="0" t="n">
         <v>2</v>
@@ -4579,7 +4537,7 @@
     </row>
     <row r="37" spans="1:40">
       <c r="A37" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
@@ -4591,16 +4549,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>11</v>
@@ -4690,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="AL37" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM37" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN37" s="0" t="n">
         <v>2</v>
@@ -4701,7 +4656,7 @@
     </row>
     <row r="38" spans="1:40">
       <c r="A38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -4713,13 +4668,16 @@
         <v>41</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>10</v>
@@ -4809,10 +4767,10 @@
         <v>4</v>
       </c>
       <c r="AL38" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM38" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN38" s="0" t="n">
         <v>2</v>
@@ -4820,7 +4778,7 @@
     </row>
     <row r="39" spans="1:40">
       <c r="A39" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
@@ -4832,16 +4790,16 @@
         <v>41</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>6</v>
@@ -4931,10 +4889,10 @@
         <v>5</v>
       </c>
       <c r="AL39" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM39" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN39" s="0" t="n">
         <v>2</v>
